--- a/templates/template-bestellung_deu_v2.11.xlsx
+++ b/templates/template-bestellung_deu_v2.11.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Datenbank\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\eclipse.workspace\facturaX\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34B8982-1769-4716-8486-77162E4368D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1376F-0C6D-4B9D-A9C7-BA0EAF3081EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BDB31136-F42A-43E6-B94C-7A1AD5286F65}"/>
   </bookViews>
   <sheets>
-    <sheet name="Angebot" sheetId="1" r:id="rId1"/>
+    <sheet name="Bestellung" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>GESAMT</t>
   </si>
@@ -50,9 +50,6 @@
     <t>BEZEICHNUNG</t>
   </si>
   <si>
-    <t xml:space="preserve">ANGEBOTSREFERENZ:   </t>
-  </si>
-  <si>
     <t>POS</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t xml:space="preserve">BESTELLSUMME NETTO:   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFERENZ:   </t>
+  </si>
+  <si>
+    <t>{A37}</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
     <numFmt numFmtId="167" formatCode="\I\S\B\N\ #\-###\-#####\-#"/>
     <numFmt numFmtId="168" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +270,13 @@
     <font>
       <sz val="24"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -416,7 +426,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -506,6 +516,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -521,9 +534,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -571,6 +581,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -922,8 +935,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -939,11 +952,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
@@ -970,18 +983,18 @@
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="51"/>
@@ -992,7 +1005,7 @@
       <c r="B6" s="49"/>
       <c r="C6" s="27"/>
       <c r="D6" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="52"/>
@@ -1003,7 +1016,7 @@
       <c r="B7" s="49"/>
       <c r="C7" s="27"/>
       <c r="D7" s="50" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="47"/>
@@ -1046,7 +1059,7 @@
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -1056,7 +1069,7 @@
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -1082,7 +1095,7 @@
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -1101,7 +1114,7 @@
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
@@ -1210,80 +1223,84 @@
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="35"/>
+      <c r="C29" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="36"/>
       <c r="E29" s="14"/>
       <c r="F29" s="13"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
       <c r="E32" s="6"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="A37" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
@@ -1306,10 +1323,10 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
     </row>
@@ -1318,33 +1335,31 @@
       <c r="F45" s="1"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="37">
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A36:F36"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="A47:B47"/>
@@ -1366,20 +1381,22 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A15:F15"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E47:G47"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" sqref="C1 C3:E11 B2:B11 B15:F15 A1 F9:F11 F3:F7 A12:A14" xr:uid="{21824488-88C6-453E-8F38-8F58E590857F}"/>

--- a/templates/template-bestellung_deu_v2.11.xlsx
+++ b/templates/template-bestellung_deu_v2.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\eclipse.workspace\facturaX\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1376F-0C6D-4B9D-A9C7-BA0EAF3081EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24676CD9-4633-44D4-B472-73A0319552E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{BDB31136-F42A-43E6-B94C-7A1AD5286F65}"/>
   </bookViews>
@@ -53,24 +53,6 @@
     <t>POS</t>
   </si>
   <si>
-    <t>{A12}</t>
-  </si>
-  <si>
-    <t>{A13}</t>
-  </si>
-  <si>
-    <t>{A33}</t>
-  </si>
-  <si>
-    <t>{A36}</t>
-  </si>
-  <si>
-    <t>{A39}</t>
-  </si>
-  <si>
-    <t>{A40}</t>
-  </si>
-  <si>
     <t>{Owner}</t>
   </si>
   <si>
@@ -98,7 +80,25 @@
     <t xml:space="preserve">REFERENZ:   </t>
   </si>
   <si>
-    <t>{A37}</t>
+    <t>{Anrede}</t>
+  </si>
+  <si>
+    <t>{Grund}</t>
+  </si>
+  <si>
+    <t>{Incoterms}</t>
+  </si>
+  <si>
+    <t>{Satz1}</t>
+  </si>
+  <si>
+    <t>{Satz2}</t>
+  </si>
+  <si>
+    <t>{Gruß}</t>
+  </si>
+  <si>
+    <t>{Name}</t>
   </si>
 </sst>
 </file>
@@ -516,74 +516,74 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -935,8 +935,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:F37"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -951,26 +951,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="A1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="30"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
@@ -983,71 +983,71 @@
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" s="48" t="s">
-        <v>14</v>
+      <c r="B5" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="28"/>
-      <c r="D5" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="D5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" s="49"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="D6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" s="49"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="27"/>
-      <c r="D7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="D7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="49"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="26"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
@@ -1058,40 +1058,40 @@
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="A12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="A13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
@@ -1103,18 +1103,18 @@
       <c r="C16" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="18"/>
@@ -1223,84 +1223,84 @@
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="36"/>
+      <c r="C29" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="50"/>
       <c r="E29" s="14"/>
       <c r="F29" s="13"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10"/>
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
       <c r="E32" s="6"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
+      <c r="A33" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="A36" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
+      <c r="A37" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="A39" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="A40" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
@@ -1323,10 +1323,10 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
     </row>
@@ -1335,31 +1335,52 @@
       <c r="F45" s="1"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="37">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F7:G8"/>
     <mergeCell ref="A47:B47"/>
@@ -1376,27 +1397,6 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E47:G47"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" sqref="C1 C3:E11 B2:B11 B15:F15 A1 F9:F11 F3:F7 A12:A14" xr:uid="{21824488-88C6-453E-8F38-8F58E590857F}"/>
